--- a/SouceDemo.xlsx
+++ b/SouceDemo.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\assignment  2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HLR perfomance_glitch_user " sheetId="1" r:id="rId1"/>
     <sheet name="HLR Error_user" sheetId="4" r:id="rId2"/>
     <sheet name="HLR problem_user" sheetId="3" r:id="rId3"/>
     <sheet name="HLR_Standard_user" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -207,22 +208,6 @@
       <t xml:space="preserve">Username: Performance_glitch_user                         Password : secret_sauce
 Prrepared By : Ajay dalvadi
 Date : 22/12/23 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   Functionality Name</t>
     </r>
   </si>
   <si>
@@ -603,6 +588,9 @@
   </si>
   <si>
     <t>By clicking this button, the item will be removed from the cart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Functionality Id</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1083,7 @@
   <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="A7" sqref="A7:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,10 +1404,10 @@
         <v>301</v>
       </c>
       <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2010,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,7 +2011,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -2050,13 +2038,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2064,10 +2052,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2078,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2089,7 +2077,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2097,10 +2085,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2108,10 +2096,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2119,10 +2107,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2130,10 +2118,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2146,10 +2134,10 @@
         <v>101</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2157,10 +2145,10 @@
         <v>102</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2168,10 +2156,10 @@
         <v>103</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2179,10 +2167,10 @@
         <v>104</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2190,10 +2178,10 @@
         <v>105</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2201,10 +2189,10 @@
         <v>106</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2215,7 +2203,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2223,10 +2211,10 @@
         <v>108</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2237,7 +2225,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2245,10 +2233,10 @@
         <v>110</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,10 +2249,10 @@
         <v>201</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2272,10 +2260,10 @@
         <v>202</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2283,10 +2271,10 @@
         <v>203</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2294,10 +2282,10 @@
         <v>204</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2310,10 +2298,10 @@
         <v>301</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2329,8 +2317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,7 +2330,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -2364,13 +2352,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2378,10 +2366,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2425,7 +2413,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2436,7 +2424,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2447,7 +2435,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2474,7 +2462,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2611,7 +2599,7 @@
         <v>41</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2646,10 +2634,10 @@
         <v>301</v>
       </c>
       <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2685,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,7 +2686,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -2720,13 +2708,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2734,10 +2722,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2745,10 +2733,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2759,7 +2747,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2767,10 +2755,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2778,10 +2766,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2789,10 +2777,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2803,7 +2791,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2816,10 +2804,10 @@
         <v>101</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2827,10 +2815,10 @@
         <v>102</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2838,10 +2826,10 @@
         <v>103</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2849,10 +2837,10 @@
         <v>104</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2863,7 +2851,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2871,10 +2859,10 @@
         <v>106</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2887,7 +2875,7 @@
         <v>201</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>29</v>
@@ -2898,7 +2886,7 @@
         <v>202</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>30</v>
@@ -2909,7 +2897,7 @@
         <v>203</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>35</v>
@@ -2920,7 +2908,7 @@
         <v>204</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>36</v>
@@ -3002,10 +2990,10 @@
         <v>301</v>
       </c>
       <c r="B32" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3050,4 +3038,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>